--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62090.65985668577</v>
+        <v>66706.77908749365</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26320,7 @@
         <v>80630.55414858479</v>
       </c>
       <c r="E2" t="n">
-        <v>85740.41111239768</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="F2" t="n">
         <v>85740.41111239771</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="F4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="H4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="I4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="J4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="K4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="L4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="M4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="N4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="O4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="P4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23637.016559519</v>
+        <v>-22876.85944685536</v>
       </c>
       <c r="C6" t="n">
-        <v>-23637.016559519</v>
+        <v>-22876.85944685536</v>
       </c>
       <c r="D6" t="n">
-        <v>-23637.016559519</v>
+        <v>-22876.85944685536</v>
       </c>
       <c r="E6" t="n">
-        <v>-92832.80999932777</v>
+        <v>-92382.33699495044</v>
       </c>
       <c r="F6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="G6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="H6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="I6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="J6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="K6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="L6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="M6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="N6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="O6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
       <c r="P6" t="n">
-        <v>40267.19000067231</v>
+        <v>40717.66300504955</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66706.77908749365</v>
+        <v>80433.13722491181</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="C4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E4" t="n">
         <v>41411.13600233983</v>
@@ -26528,7 +26530,7 @@
         <v>-22876.85944685536</v>
       </c>
       <c r="E6" t="n">
-        <v>-92382.33699495044</v>
+        <v>-92382.3369949505</v>
       </c>
       <c r="F6" t="n">
         <v>40717.66300504955</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80433.13722491181</v>
+        <v>-44676.76157256488</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="E6" t="n">
-        <v>-92382.3369949505</v>
+        <v>-107192.3538340644</v>
       </c>
       <c r="F6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="G6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="H6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="I6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="J6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="K6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="L6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="M6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="N6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="O6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
       <c r="P6" t="n">
-        <v>40717.66300504955</v>
+        <v>25907.64616593565</v>
       </c>
     </row>
   </sheetData>
